--- a/experiments/dbscan-ajk/drone-sbert/0.1/prediction.xlsx
+++ b/experiments/dbscan-ajk/drone-sbert/0.1/prediction.xlsx
@@ -468,117 +468,117 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t>Accelerator is Over Range</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Accelerator is Over Range</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -588,3037 +588,3037 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated</t>
+          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Auto Landing in nnn(s)</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Attitude is too large.</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Auto Landing in nnn(s)</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>Auxiliary Bottom Light turned on</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Away and Follow in progress.</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>64</v>
+        <v>87</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Attitude is too large.</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned on</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Away and Follow in progress.</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Working.</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>77</v>
+        <v>96</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>85</v>
+        <v>109</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>86</v>
+        <v>113</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>93</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>102</v>
+        <v>121</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>102</v>
+        <v>122</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>103</v>
+        <v>124</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>103</v>
+        <v>125</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>103</v>
+        <v>126</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>104</v>
+        <v>127</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>105</v>
+        <v>127</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>106</v>
+        <v>128</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>107</v>
+        <v>128</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>107</v>
+        <v>129</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>107</v>
+        <v>130</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>107</v>
+        <v>135</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>108</v>
+        <v>132</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>109</v>
+        <v>132</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>109</v>
+        <v>132</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>110</v>
+        <v>133</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>112</v>
+        <v>134</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>113</v>
+        <v>134</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>114</v>
+        <v>136</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>117</v>
+        <v>138</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>132</v>
+        <v>147</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>132</v>
+        <v>147</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>147</v>
+        <v>71</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>147</v>
+        <v>55</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>147</v>
+        <v>55</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>147</v>
+        <v>63</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>148</v>
+        <v>167</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>153</v>
+        <v>174</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>153</v>
+        <v>174</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>153</v>
+        <v>102</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>153</v>
+        <v>101</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>153</v>
+        <v>175</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>153</v>
+        <v>176</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>153</v>
+        <v>177</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>153</v>
+        <v>182</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>153</v>
+        <v>178</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>153</v>
+        <v>178</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>153</v>
+        <v>179</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>153</v>
+        <v>180</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>154</v>
+        <v>183</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>155</v>
+        <v>71</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>156</v>
+        <v>71</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>156</v>
+        <v>71</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Forward Obstacle Sensing not Working.</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>157</v>
+        <v>71</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -3628,657 +3628,657 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>158</v>
+        <v>184</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>159</v>
+        <v>185</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>160</v>
+        <v>196</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>161</v>
+        <v>195</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>162</v>
+        <v>197</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>163</v>
+        <v>197</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>164</v>
+        <v>197</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>165</v>
+        <v>197</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>166</v>
+        <v>188</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>166</v>
+        <v>190</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>167</v>
+        <v>190</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>168</v>
+        <v>191</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>169</v>
+        <v>192</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>173</v>
+        <v>198</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>174</v>
+        <v>199</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>174</v>
+        <v>201</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>174</v>
+        <v>200</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>175</v>
+        <v>201</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>176</v>
+        <v>201</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>177</v>
+        <v>201</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>178</v>
+        <v>201</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>178</v>
+        <v>201</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>179</v>
+        <v>200</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>180</v>
+        <v>202</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>181</v>
+        <v>202</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>182</v>
+        <v>203</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>183</v>
+        <v>204</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>184</v>
+        <v>203</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>185</v>
+        <v>205</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>189</v>
+        <v>209</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>189</v>
+        <v>210</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>189</v>
+        <v>210</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>190</v>
+        <v>211</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>190</v>
+        <v>8</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>191</v>
+        <v>207</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>192</v>
+        <v>208</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>194</v>
+        <v>213</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>197</v>
+        <v>218</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>197</v>
+        <v>218</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>197</v>
+        <v>220</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>197</v>
+        <v>221</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>197</v>
+        <v>221</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>197</v>
+        <v>221</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>200</v>
+        <v>219</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>200</v>
+        <v>219</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>201</v>
+        <v>223</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>201</v>
+        <v>224</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -4288,1111 +4288,1111 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>201</v>
+        <v>226</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>201</v>
+        <v>226</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>201</v>
+        <v>227</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>201</v>
+        <v>228</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>202</v>
+        <v>140</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>202</v>
+        <v>229</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>202</v>
+        <v>229</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>202</v>
+        <v>142</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>202</v>
+        <v>14</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>202</v>
+        <v>14</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>202</v>
+        <v>14</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>203</v>
+        <v>230</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>203</v>
+        <v>230</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>206</v>
+        <v>231</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>207</v>
+        <v>107</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>208</v>
+        <v>107</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>208</v>
+        <v>232</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>209</v>
+        <v>232</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>210</v>
+        <v>107</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>210</v>
+        <v>107</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>211</v>
+        <v>107</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>212</v>
+        <v>233</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>213</v>
+        <v>234</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>214</v>
+        <v>241</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>215</v>
+        <v>236</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>216</v>
+        <v>237</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>217</v>
+        <v>238</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>218</v>
+        <v>238</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>218</v>
+        <v>237</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>218</v>
+        <v>239</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>219</v>
+        <v>240</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>219</v>
+        <v>236</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>219</v>
+        <v>242</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>219</v>
+        <v>243</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>219</v>
+        <v>243</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>219</v>
+        <v>244</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>220</v>
+        <v>195</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>221</v>
+        <v>245</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>221</v>
+        <v>245</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>221</v>
+        <v>245</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>222</v>
+        <v>245</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>223</v>
+        <v>246</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>224</v>
+        <v>247</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>225</v>
+        <v>247</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>226</v>
+        <v>248</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>226</v>
+        <v>249</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>227</v>
+        <v>250</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>231</v>
+        <v>251</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>232</v>
+        <v>253</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>232</v>
+        <v>252</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>232</v>
+        <v>254</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>232</v>
+        <v>255</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>233</v>
+        <v>256</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>234</v>
+        <v>257</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>235</v>
+        <v>173</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>236</v>
+        <v>173</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>236</v>
+        <v>173</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>237</v>
+        <v>174</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>237</v>
+        <v>140</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>237</v>
+        <v>140</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>238</v>
+        <v>140</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>238</v>
+        <v>140</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>238</v>
+        <v>258</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>240</v>
+        <v>259</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>241</v>
+        <v>172</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>243</v>
+        <v>262</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>244</v>
+        <v>11</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>245</v>
+        <v>275</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>245</v>
+        <v>276</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>245</v>
+        <v>278</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>246</v>
+        <v>278</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>247</v>
+        <v>279</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>247</v>
+        <v>206</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>248</v>
+        <v>280</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>249</v>
+        <v>280</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>250</v>
+        <v>281</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>252</v>
+        <v>191</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>257</v>
+        <v>272</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>261</v>
+        <v>27</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Target lost. QuickShots stopped</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>265</v>
+        <v>202</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>266</v>
+        <v>202</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>267</v>
+        <v>202</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="497">
@@ -5408,751 +5408,751 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>270</v>
+        <v>214</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>274</v>
+        <v>287</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>275</v>
+        <v>232</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>279</v>
+        <v>292</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>Strong Interference. Fly with caution.</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>289</v>
+        <v>201</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>294</v>
+        <v>118</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Strong Interference. Fly with caution.</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>297</v>
+        <v>218</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t>Target lost. QuickShots stopped</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>300</v>
+        <v>262</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>301</v>
+        <v>29</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>308</v>
+        <v>317</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>311</v>
+        <v>157</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>312</v>
+        <v>321</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>313</v>
+        <v>322</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>315</v>
+        <v>324</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>318</v>
+        <v>85</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>319</v>
+        <v>129</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>320</v>
+        <v>130</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>321</v>
+        <v>141</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>322</v>
+        <v>107</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>Waypoint Mission Paused</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>327</v>
+        <v>63</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>328</v>
+        <v>197</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>329</v>
+        <v>197</v>
       </c>
     </row>
     <row r="573">
